--- a/file.xlsx
+++ b/file.xlsx
@@ -16,15 +16,51 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>mathavan</t>
-  </si>
-  <si>
-    <t>madesh</t>
-  </si>
-  <si>
-    <t>suriya</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+  <si>
+    <t>STAFF ID</t>
+  </si>
+  <si>
+    <t>CS203</t>
+  </si>
+  <si>
+    <t>CS257</t>
+  </si>
+  <si>
+    <t>CS300</t>
+  </si>
+  <si>
+    <t>CS258</t>
+  </si>
+  <si>
+    <t>CS277</t>
+  </si>
+  <si>
+    <t>CS269</t>
+  </si>
+  <si>
+    <t>STAFF NAME</t>
+  </si>
+  <si>
+    <t>Ms.M.Jayelakshmi</t>
+  </si>
+  <si>
+    <t>Dr.Anitha Elavarasi</t>
+  </si>
+  <si>
+    <t>Dr.Anantha Jothi K</t>
+  </si>
+  <si>
+    <t>M.praveen</t>
+  </si>
+  <si>
+    <t>Dr.S.Senthil Pandi</t>
+  </si>
+  <si>
+    <t>Mrs.Deivani</t>
+  </si>
+  <si>
+    <t>Mrs.Ananthi S</t>
   </si>
 </sst>
 </file>
@@ -363,37 +399,79 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>18</v>
-      </c>
-      <c r="C1">
-        <v>2004</v>
-      </c>
-      <c r="D1">
-        <v>180</v>
-      </c>
-      <c r="E1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
